--- a/ToolboxForSimulator/condition/boiling_data.xlsx
+++ b/ToolboxForSimulator/condition/boiling_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaceclub\Documents\実験\3ME1_Experiment20\ToolboxForSimulator\condition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment20\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5F6AC-5D20-4CE5-ACCF-2D94405807C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC5423-951B-4674-964C-1BA76E3864D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-990" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>q0</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>delta_Tsat30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delta_Tsub0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delta_Tsub30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -115,6 +123,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,21 +408,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="2" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -419,102 +430,147 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>3.0262830770646048</v>
       </c>
       <c r="B2" s="2">
         <v>74106.520377163761</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>-7.3770440748193806</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>127987.10006973252</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>8.2279466530066401</v>
       </c>
       <c r="B3" s="2">
         <v>133623.83763757048</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>8.4115347792162964</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>208890.86280811267</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>13.552002313088437</v>
       </c>
       <c r="B4" s="2">
         <v>211792.12479155869</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>18.325293594541037</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>308860.06143770943</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>17.101372753142925</v>
       </c>
       <c r="B5" s="2">
         <v>307865.34304338507</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>25.209848327405439</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>559031.73761028238</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>20.16117485663824</v>
       </c>
       <c r="B6" s="2">
         <v>422423.74478973891</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>31.543638681640772</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>887786.16693447868</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>21.997056118735443</v>
       </c>
       <c r="B7" s="2">
         <v>554389.71843676874</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>33.624304112017541</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>1285176.165467055</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="3">
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="3">
         <v>36.576113200095421</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>1461676.5105599812</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ToolboxForSimulator/condition/boiling_data.xlsx
+++ b/ToolboxForSimulator/condition/boiling_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment20\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC5423-951B-4674-964C-1BA76E3864D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE5EF1-589E-46EA-AF27-AC9D879A85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ToolboxForSimulator/condition/boiling_data.xlsx
+++ b/ToolboxForSimulator/condition/boiling_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment20\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE5EF1-589E-46EA-AF27-AC9D879A85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF6060-C160-4541-98D5-F8A89A212CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -66,11 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -108,12 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -122,9 +118,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -408,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -443,135 +437,162 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>3.0262830770646048</v>
       </c>
-      <c r="B2" s="2">
-        <v>74106.520377163761</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2">
+        <v>7.4106520377163768E-2</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>-7.3770440748193806</v>
       </c>
-      <c r="E2" s="2">
-        <v>127987.10006973252</v>
+      <c r="E2" s="5">
+        <v>0.12798710006973252</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>8.2279466530066401</v>
       </c>
-      <c r="B3" s="2">
-        <v>133623.83763757048</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3">
+        <v>0.13362383763757049</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8.4115347792162964</v>
       </c>
-      <c r="E3" s="2">
-        <v>208890.86280811267</v>
+      <c r="E3" s="5">
+        <v>0.20889086280811267</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>13.552002313088437</v>
       </c>
-      <c r="B4" s="2">
-        <v>211792.12479155869</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4">
+        <v>0.21179212479155868</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>18.325293594541037</v>
       </c>
-      <c r="E4" s="2">
-        <v>308860.06143770943</v>
+      <c r="E4" s="5">
+        <v>0.30886006143770944</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>17.101372753142925</v>
       </c>
-      <c r="B5" s="2">
-        <v>307865.34304338507</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5">
+        <v>0.30786534304338509</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>25.209848327405439</v>
       </c>
-      <c r="E5" s="2">
-        <v>559031.73761028238</v>
+      <c r="E5" s="5">
+        <v>0.55903173761028235</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>20.16117485663824</v>
       </c>
-      <c r="B6" s="2">
-        <v>422423.74478973891</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6">
+        <v>0.42242374478973893</v>
+      </c>
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>31.543638681640772</v>
       </c>
       <c r="E6" s="5">
-        <v>887786.16693447868</v>
+        <v>0.88778616693447865</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>21.997056118735443</v>
       </c>
-      <c r="B7" s="2">
-        <v>554389.71843676874</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7">
+        <v>0.55438971843676876</v>
+      </c>
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>33.624304112017541</v>
       </c>
       <c r="E7" s="5">
-        <v>1285176.165467055</v>
+        <v>1.285176165467055</v>
       </c>
       <c r="F7">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>36.576113200095421</v>
       </c>
       <c r="E8" s="5">
-        <v>1461676.5105599812</v>
+        <v>1.4616765105599812</v>
       </c>
       <c r="F8">
         <v>30</v>
       </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ToolboxForSimulator/condition/boiling_data.xlsx
+++ b/ToolboxForSimulator/condition/boiling_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment20\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF6060-C160-4541-98D5-F8A89A212CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AF0DD-B5E6-4C6D-B3DC-D4F8FC38A0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,8 +68,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -107,19 +107,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +402,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -437,8 +434,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>3.0262830770646048</v>
+      <c r="A2" s="4">
+        <v>276.17628307706457</v>
       </c>
       <c r="B2">
         <v>7.4106520377163768E-2</v>
@@ -446,10 +443,10 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>-7.3770440748193806</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4">
+        <v>265.77295592518061</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.12798710006973252</v>
       </c>
       <c r="F2">
@@ -457,8 +454,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>8.2279466530066401</v>
+      <c r="A3" s="4">
+        <v>281.37794665300663</v>
       </c>
       <c r="B3">
         <v>0.13362383763757049</v>
@@ -466,10 +463,10 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>8.4115347792162964</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4">
+        <v>281.56153477921629</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.20889086280811267</v>
       </c>
       <c r="F3">
@@ -477,8 +474,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>13.552002313088437</v>
+      <c r="A4" s="4">
+        <v>286.70200231308843</v>
       </c>
       <c r="B4">
         <v>0.21179212479155868</v>
@@ -486,10 +483,10 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
-        <v>18.325293594541037</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="4">
+        <v>291.47529359454103</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.30886006143770944</v>
       </c>
       <c r="F4">
@@ -497,8 +494,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>17.101372753142925</v>
+      <c r="A5" s="4">
+        <v>290.2513727531429</v>
       </c>
       <c r="B5">
         <v>0.30786534304338509</v>
@@ -506,10 +503,10 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <v>25.209848327405439</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="4">
+        <v>298.35984832740542</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.55903173761028235</v>
       </c>
       <c r="F5">
@@ -517,8 +514,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>20.16117485663824</v>
+      <c r="A6" s="4">
+        <v>293.31117485663822</v>
       </c>
       <c r="B6">
         <v>0.42242374478973893</v>
@@ -527,9 +524,9 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>31.543638681640772</v>
-      </c>
-      <c r="E6" s="5">
+        <v>304.69363868164078</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.88778616693447865</v>
       </c>
       <c r="F6">
@@ -537,8 +534,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>21.997056118735443</v>
+      <c r="A7" s="4">
+        <v>295.14705611873541</v>
       </c>
       <c r="B7">
         <v>0.55438971843676876</v>
@@ -547,9 +544,9 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>33.624304112017541</v>
-      </c>
-      <c r="E7" s="5">
+        <v>306.77430411201749</v>
+      </c>
+      <c r="E7" s="1">
         <v>1.285176165467055</v>
       </c>
       <c r="F7">
@@ -558,9 +555,9 @@
     </row>
     <row r="8" spans="1:6">
       <c r="D8" s="2">
-        <v>36.576113200095421</v>
-      </c>
-      <c r="E8" s="5">
+        <v>309.72611320009537</v>
+      </c>
+      <c r="E8" s="1">
         <v>1.4616765105599812</v>
       </c>
       <c r="F8">
@@ -568,31 +565,31 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ToolboxForSimulator/condition/boiling_data.xlsx
+++ b/ToolboxForSimulator/condition/boiling_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttake\MATLAB\Projects\3ME1_Experiment20\ToolboxForSimulator\condition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AF0DD-B5E6-4C6D-B3DC-D4F8FC38A0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C587FB1-E09F-48A0-AD45-2ECDFAF25713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="810" windowWidth="21600" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -68,8 +68,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -107,16 +107,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,7 +405,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -435,7 +438,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4">
-        <v>276.17628307706457</v>
+        <v>3.0262830770646048</v>
       </c>
       <c r="B2">
         <v>7.4106520377163768E-2</v>
@@ -444,9 +447,9 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>265.77295592518061</v>
-      </c>
-      <c r="E2" s="1">
+        <v>-7.3770440748193806</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.12798710006973252</v>
       </c>
       <c r="F2">
@@ -455,7 +458,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4">
-        <v>281.37794665300663</v>
+        <v>8.2279466530066401</v>
       </c>
       <c r="B3">
         <v>0.13362383763757049</v>
@@ -464,9 +467,9 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>281.56153477921629</v>
-      </c>
-      <c r="E3" s="1">
+        <v>8.4115347792162964</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.20889086280811267</v>
       </c>
       <c r="F3">
@@ -474,8 +477,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
-        <v>286.70200231308843</v>
+      <c r="A4" s="2">
+        <v>13.552002313088437</v>
       </c>
       <c r="B4">
         <v>0.21179212479155868</v>
@@ -483,10 +486,10 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
-        <v>291.47529359454103</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>18.325293594541037</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.30886006143770944</v>
       </c>
       <c r="F4">
@@ -494,8 +497,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>290.2513727531429</v>
+      <c r="A5" s="2">
+        <v>17.101372753142925</v>
       </c>
       <c r="B5">
         <v>0.30786534304338509</v>
@@ -503,10 +506,10 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <v>298.35984832740542</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <v>25.209848327405439</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.55903173761028235</v>
       </c>
       <c r="F5">
@@ -514,8 +517,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>293.31117485663822</v>
+      <c r="A6" s="2">
+        <v>20.16117485663824</v>
       </c>
       <c r="B6">
         <v>0.42242374478973893</v>
@@ -523,10 +526,10 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>304.69363868164078</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="4">
+        <v>31.543638681640772</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.88778616693447865</v>
       </c>
       <c r="F6">
@@ -534,8 +537,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
-        <v>295.14705611873541</v>
+      <c r="A7" s="2">
+        <v>21.997056118735443</v>
       </c>
       <c r="B7">
         <v>0.55438971843676876</v>
@@ -543,10 +546,10 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>306.77430411201749</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="4">
+        <v>33.624304112017541</v>
+      </c>
+      <c r="E7" s="5">
         <v>1.285176165467055</v>
       </c>
       <c r="F7">
@@ -554,10 +557,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="2">
-        <v>309.72611320009537</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4">
+        <v>36.576113200095421</v>
+      </c>
+      <c r="E8" s="5">
         <v>1.4616765105599812</v>
       </c>
       <c r="F8">
